--- a/SVG/conversion.xlsx
+++ b/SVG/conversion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="162">
   <si>
     <t>'s-Hertogenbosch - Eindhoven</t>
   </si>
@@ -483,6 +483,33 @@
   </si>
   <si>
     <t>lijn052</t>
+  </si>
+  <si>
+    <t>lijn053</t>
+  </si>
+  <si>
+    <t>lijn054</t>
+  </si>
+  <si>
+    <t>lijn055</t>
+  </si>
+  <si>
+    <t>lijn056</t>
+  </si>
+  <si>
+    <t>lijn058</t>
+  </si>
+  <si>
+    <t>lijn059</t>
+  </si>
+  <si>
+    <t>lijn060</t>
+  </si>
+  <si>
+    <t>lijn061</t>
+  </si>
+  <si>
+    <t>lijn057</t>
   </si>
 </sst>
 </file>
@@ -802,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,6 +853,9 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -839,6 +869,12 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1011,11 +1047,23 @@
       <c r="A30" t="s">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1026,6 +1074,12 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1527,6 +1581,12 @@
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">

--- a/SVG/conversion.xlsx
+++ b/SVG/conversion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="230">
   <si>
     <t>'s-Hertogenbosch - Eindhoven</t>
   </si>
@@ -510,6 +510,210 @@
   </si>
   <si>
     <t>lijn057</t>
+  </si>
+  <si>
+    <t>lijn101</t>
+  </si>
+  <si>
+    <t>lijn098</t>
+  </si>
+  <si>
+    <t>lijn096</t>
+  </si>
+  <si>
+    <t>lijn095</t>
+  </si>
+  <si>
+    <t>lijn097</t>
+  </si>
+  <si>
+    <t>lijn107</t>
+  </si>
+  <si>
+    <t>lijn075</t>
+  </si>
+  <si>
+    <t>lijn076</t>
+  </si>
+  <si>
+    <t>lijn077</t>
+  </si>
+  <si>
+    <t>lijn071</t>
+  </si>
+  <si>
+    <t>lijn072</t>
+  </si>
+  <si>
+    <t>lijn074</t>
+  </si>
+  <si>
+    <t>lijn080</t>
+  </si>
+  <si>
+    <t>lijn081</t>
+  </si>
+  <si>
+    <t>lijn083</t>
+  </si>
+  <si>
+    <t>lijn084</t>
+  </si>
+  <si>
+    <t>lijn086</t>
+  </si>
+  <si>
+    <t>lijn085</t>
+  </si>
+  <si>
+    <t>lijn069</t>
+  </si>
+  <si>
+    <t>lijn073</t>
+  </si>
+  <si>
+    <t>lijn082</t>
+  </si>
+  <si>
+    <t>lijn078</t>
+  </si>
+  <si>
+    <t>lijn106</t>
+  </si>
+  <si>
+    <t>lijn070</t>
+  </si>
+  <si>
+    <t>lijn068</t>
+  </si>
+  <si>
+    <t>lijn066</t>
+  </si>
+  <si>
+    <t>lijn067</t>
+  </si>
+  <si>
+    <t>lijn127</t>
+  </si>
+  <si>
+    <t>lijn093</t>
+  </si>
+  <si>
+    <t>lijn092</t>
+  </si>
+  <si>
+    <t>lijn087</t>
+  </si>
+  <si>
+    <t>lijn136</t>
+  </si>
+  <si>
+    <t>lijn062</t>
+  </si>
+  <si>
+    <t>lijn063</t>
+  </si>
+  <si>
+    <t>lijn064</t>
+  </si>
+  <si>
+    <t>lijn088</t>
+  </si>
+  <si>
+    <t>lijn079</t>
+  </si>
+  <si>
+    <t>lijn119</t>
+  </si>
+  <si>
+    <t>lijn118</t>
+  </si>
+  <si>
+    <t>lijn117</t>
+  </si>
+  <si>
+    <t>lijn120</t>
+  </si>
+  <si>
+    <t>lijn091</t>
+  </si>
+  <si>
+    <t>lijn094</t>
+  </si>
+  <si>
+    <t>lijn039</t>
+  </si>
+  <si>
+    <t>lijn102</t>
+  </si>
+  <si>
+    <t>lijn103</t>
+  </si>
+  <si>
+    <t>lijn125</t>
+  </si>
+  <si>
+    <t>lijn100</t>
+  </si>
+  <si>
+    <t>lijn111</t>
+  </si>
+  <si>
+    <t>lijn112</t>
+  </si>
+  <si>
+    <t>lijn114</t>
+  </si>
+  <si>
+    <t>lijn116</t>
+  </si>
+  <si>
+    <t>lijn115</t>
+  </si>
+  <si>
+    <t>lijn121</t>
+  </si>
+  <si>
+    <t>lijn110</t>
+  </si>
+  <si>
+    <t>lijn109</t>
+  </si>
+  <si>
+    <t>lijn108</t>
+  </si>
+  <si>
+    <t>lijn123</t>
+  </si>
+  <si>
+    <t>lijn122</t>
+  </si>
+  <si>
+    <t>lijn099</t>
+  </si>
+  <si>
+    <t>lijn104</t>
+  </si>
+  <si>
+    <t>lijn124</t>
+  </si>
+  <si>
+    <t>lijn105</t>
+  </si>
+  <si>
+    <t>lijn065</t>
+  </si>
+  <si>
+    <t>lijn046</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>lijn137</t>
+  </si>
+  <si>
+    <t>lijn089</t>
   </si>
 </sst>
 </file>
@@ -827,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +1042,7 @@
     <col min="1" max="1" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +1053,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -857,7 +1061,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -865,7 +1069,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -876,7 +1080,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -893,7 +1097,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -904,7 +1108,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -915,32 +1119,62 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -948,37 +1182,106 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -989,7 +1292,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1003,47 +1306,101 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1054,7 +1411,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1065,9 +1422,18 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,11 +1451,23 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1152,6 +1530,15 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1218,13 +1605,22 @@
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1232,7 +1628,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1243,7 +1639,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1254,12 +1650,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1267,12 +1663,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1280,12 +1682,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1293,52 +1704,109 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" t="s">
+        <v>212</v>
+      </c>
+      <c r="E62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" t="s">
+        <v>212</v>
+      </c>
+      <c r="E66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67" t="s">
+        <v>218</v>
+      </c>
+      <c r="F67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1349,7 +1817,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1357,7 +1825,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1365,17 +1833,20 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1383,7 +1854,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1391,7 +1862,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1399,27 +1870,42 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1431,16 +1917,31 @@
       <c r="A81" t="s">
         <v>80</v>
       </c>
+      <c r="B81" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
+      <c r="B82" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
+      <c r="B83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -1474,11 +1975,26 @@
       <c r="A86" t="s">
         <v>85</v>
       </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
+      <c r="B87" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -1518,11 +2034,20 @@
       <c r="A93" t="s">
         <v>92</v>
       </c>
+      <c r="B93" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
+      <c r="B94" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -1544,6 +2069,9 @@
       <c r="A97" t="s">
         <v>96</v>
       </c>
+      <c r="B97" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -1566,6 +2094,15 @@
       <c r="A99" t="s">
         <v>98</v>
       </c>
+      <c r="B99" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -1593,10 +2130,19 @@
       <c r="A102" t="s">
         <v>101</v>
       </c>
+      <c r="B102" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
